--- a/CORTE I/Solver_II/Solver_II.xlsx
+++ b/CORTE I/Solver_II/Solver_II.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\Desktop\GITHUB\OPTIMIZACION_LINEAL\CORTE I\Solver_II\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F21730-B9BF-4AD0-8E13-FDF23265A1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T6P1" sheetId="1" r:id="rId1"/>
+    <sheet name="T6P2" sheetId="2" r:id="rId2"/>
+    <sheet name="T6P3" sheetId="3" r:id="rId3"/>
+    <sheet name="T6P4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,10 +27,257 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+  <si>
+    <t>PROBLEMA 1. OZARK FARM</t>
+  </si>
+  <si>
+    <t>Ozark Farm tiene 20000 pollos que alimenta durante cuatro semanas antes de enviarlos al mercado. La alimentación semanal por pollo varía según el programa presentado en la TABLA:</t>
+  </si>
+  <si>
+    <t>Semana</t>
+  </si>
+  <si>
+    <t>Lb/pollo</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.48</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>Para que el pollo alcance el peso deseado en cuatro semanas, los alimentos deben satisfacer necesidades nutricionales específicas. Aunque una lista de alimentos es grande, por simplicidad limitaremos el modelo a sólo tres ingredientes: piedra caliza (carbonato de calcio), maíz y soya. Las necesidades nutricionales también se limitarán a tres tipos: calcio, proteína y fibra. La siguiente tabla resume el contenido nutritivo de los ingredientes seleccionados junto con sus costos.</t>
+  </si>
+  <si>
+    <t>Ingrediente</t>
+  </si>
+  <si>
+    <t>Calcio</t>
+  </si>
+  <si>
+    <t>Nutriente (lb de nutriente / lb de ingrediente)</t>
+  </si>
+  <si>
+    <t>Proteína</t>
+  </si>
+  <si>
+    <t>Fibra</t>
+  </si>
+  <si>
+    <t>$/libra</t>
+  </si>
+  <si>
+    <t>Piedra caliza</t>
+  </si>
+  <si>
+    <t>Maíz</t>
+  </si>
+  <si>
+    <t>Soya</t>
+  </si>
+  <si>
+    <t>En cada semana, la mezcla alimenticia debe contener al menos 0.8%, pero no más de 1.2% de calcio, un mínimo de 22% de proteína, y cuando mucho 5% de fibra cruda. Plantee y resuelva el modelo de PL para esta situación.</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1.60</t>
+  </si>
+  <si>
+    <t>PROBLEMA 2. PLANEACIÓN HORARIOS</t>
+  </si>
+  <si>
+    <t>Una oficina requiere distintas cantidades de empleados tiempo completo en diferentes días de la semana. La cantidad mínima de empleados tiempo completo que se requieren cada día se muestran en la Tabla. Las reglas del le permita a la oficina minimizar la cantidad de empleados de tiempo completo que deben ser contratados. sindicato establecen que cada empleado tiempo completo debe trabajar cinco días consecutivos y descansar dos días. Por ejemplo, un empleado que trabaja de lunes a viernes, debe descansar sábado y domingo. La oficina de correos quiere cumplir con sus exigencias diarias solo por medio de empleados de tiempo completo. Plantee un problema de programación lineal que</t>
+  </si>
+  <si>
+    <t>Día</t>
+  </si>
+  <si>
+    <t>Número mínimo de empleados de tiempo completo que se necesitan</t>
+  </si>
+  <si>
+    <t>1= Lunes</t>
+  </si>
+  <si>
+    <t>2= Martes</t>
+  </si>
+  <si>
+    <t>3 = Miércoles</t>
+  </si>
+  <si>
+    <t>4 = Jueves</t>
+  </si>
+  <si>
+    <t>5= Viernes</t>
+  </si>
+  <si>
+    <t>6= Sábado</t>
+  </si>
+  <si>
+    <t>7= Domingo</t>
+  </si>
+  <si>
+    <t>PROBLEMA 3. PENSION PLANNERS, INC</t>
+  </si>
+  <si>
+    <t>Al gerente de cartera de Pension Planners, Inc. se le ha pedido invertir $1000000 de un gran fondo de pensiones. El departamento de investigación de Inversiones ha identificado seis fondos mutuos con estrategias de inversión variables, resultando en diferentes rendimientos potenciales y riesgos asociados, como se resume en la siguiente tabla:</t>
+  </si>
+  <si>
+    <t>Precio ($/acción)</t>
+  </si>
+  <si>
+    <t>Devolución esperada (%)</t>
+  </si>
+  <si>
+    <t>Categoría de riesgo</t>
+  </si>
+  <si>
+    <t>FONDO</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Mediano</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Una forma de controlar el riesgo es limitar la cantidad de dinero invertido en los diversos fondos. Para este fin, la administración de Pension Planners, Inc. Ha especificado las siguientes pautas:</t>
+  </si>
+  <si>
+    <t>La cantidad total invertida en fondos de alto riesgo debe estar entre 50 y 75% de la cartera.</t>
+  </si>
+  <si>
+    <t>La cantidad total invertida en fondos de mediano riesgo debe estar entre 20 y 30% de la cartera.</t>
+  </si>
+  <si>
+    <t>La cantidad total invertida en fondos de bajo riesgo debe ser al menos de 5% de la cartera.</t>
+  </si>
+  <si>
+    <t>Una segunda forma de controlar el riesgo es diversificar, esto es, esparcir el riesgo invirtiendo en muchas alternativas diferentes. La gerencia de Pension Planners, Inc., ha especificado que la cantidad invertida en los fondos de alto riesgo 1, 2 y 3 deben estar en la tasa 1:2:3, respectivamente. La cantidad invertida en los fondos de mediano riesgo 4 y 5 debe ser 1:2.</t>
+  </si>
+  <si>
+    <t>Con estas pautas, ¿Qué cartera debería usted, gerente de cartera, recomendar para maximizar la tasa esperada de retorno?</t>
+  </si>
+  <si>
+    <t>PROBLEMA 4. HEXXON OIL COMPANY</t>
+  </si>
+  <si>
+    <t>HEXXON OIL COMPANY obtiene tres tipos de petróleo crudo de sus pozos de Mississippi, Nuevo México y Texas. La gasolina obtenida de estos petróleos crudos se mezcla junto con dos aditivos para obtener el producto final. Estos petróleos crudos y aditivos contienen azufre, plomo y fósforo, como se muestra en la Tabla “Composición y costo de los componentes de la mezcla”. El costo de cada componente también se presenta. Debido a los residuos e impurezas, cada galón de petróleo crudo de Mississippi resulta sólo en 0.35 de galón de producto final, que contiene 0.07% de azufre. De manera similar, cada galón de crudo de Nuevo México produce 0.40 de galón del producto final que contiene 0.08% de sulfuro y cada galón de crudo de Texas resulta en 0.30 de galón del producto final que contiene 0.10% de azufre. La gerencia ha establecido las siguientes especificaciones para controlar las cantidades de azufre, plomo y fósforo:</t>
+  </si>
+  <si>
+    <t>• Cada galón debe tener a lo más 0.07% de azufre.</t>
+  </si>
+  <si>
+    <t>• Cada galón debe tener entre 1.25 y 2.5 gramos de plomo.</t>
+  </si>
+  <si>
+    <t>•Cada galón debe tener entre 0.0025 y 0.0045 gramos de fósforo.</t>
+  </si>
+  <si>
+    <t>• La cantidad total de los aditivos no puede exceder de 19% de la mezcla.</t>
+  </si>
+  <si>
+    <t>MISSISSIPPI</t>
+  </si>
+  <si>
+    <t>NUEVO MÉXICO</t>
+  </si>
+  <si>
+    <t>TEXAS</t>
+  </si>
+  <si>
+    <t>PETRÓLEOS CRUDOS</t>
+  </si>
+  <si>
+    <t>ADITIVOS</t>
+  </si>
+  <si>
+    <t>Azufre (%)</t>
+  </si>
+  <si>
+    <t>Plomo (g/gal)</t>
+  </si>
+  <si>
+    <t>Fósforo (g/gal)</t>
+  </si>
+  <si>
+    <t>Costo ($/gal)</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Como gerente de producción, determine un plan de mezclado que produzca una gasolina aceptable al mínimo costo.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +293,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +301,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +630,580 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.88671875" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2</v>
+      </c>
+      <c r="S3" s="4">
+        <v>3</v>
+      </c>
+      <c r="T3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P6" s="2"/>
+      <c r="Q6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="7">
+        <v>0</v>
+      </c>
+      <c r="S8" s="7">
+        <v>0</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q6:T6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C42A95-0145-42D8-9C94-EC2DDB2BA1A7}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="52.88671875" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="144" x14ac:dyDescent="0.3">
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R7" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="7">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E00B8F-30D4-4753-AAE7-5295EDED113F}">
+  <dimension ref="A1:U13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O4" s="2"/>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>2</v>
+      </c>
+      <c r="R4" s="4">
+        <v>3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>4</v>
+      </c>
+      <c r="T4" s="4">
+        <v>5</v>
+      </c>
+      <c r="U4" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="3">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>76</v>
+      </c>
+      <c r="R5" s="3">
+        <v>110</v>
+      </c>
+      <c r="S5" s="3">
+        <v>17</v>
+      </c>
+      <c r="T5" s="3">
+        <v>23</v>
+      </c>
+      <c r="U5" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>20</v>
+      </c>
+      <c r="R6" s="3">
+        <v>15</v>
+      </c>
+      <c r="S6" s="3">
+        <v>12</v>
+      </c>
+      <c r="T6" s="3">
+        <v>10</v>
+      </c>
+      <c r="U6" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="O7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P3:U3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7685E26A-060A-40FB-A034-D317F34892B5}">
+  <dimension ref="A1:T13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P8" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1</v>
+      </c>
+      <c r="T8" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="3">
+        <v>7</v>
+      </c>
+      <c r="T10" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O12" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:T7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>